--- a/Artefatos/[SIGLA] Gestão dos riscos relacionados aos processos estratégicos.xlsx
+++ b/Artefatos/[SIGLA] Gestão dos riscos relacionados aos processos estratégicos.xlsx
@@ -5,14 +5,14 @@
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wwwnqiportaI.github.io\Artefatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vulcano\discosvirtuais\qualidade\M3P\Artefatos\M3P_5ed ajustes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Gestão dos Riscos Relacionados" sheetId="1" r:id="rId1"/>
+    <sheet name="Gestão dos Riscos Relacionados " sheetId="1" r:id="rId1"/>
     <sheet name="Instruções preenchimento" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -1146,9 +1146,9 @@
   </sheetPr>
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1725,8 +1725,8 @@
   </sheetPr>
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
